--- a/documentation/院校库.xlsx
+++ b/documentation/院校库.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sun\Documents\python_progect\yanzhaowang\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sun\Documents\python_progect\yanzhaowang\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67636F8D-ACD5-43BA-AB75-0D7B92E9F341}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E25A135-F39F-4F6C-B2A9-7A8368625B0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{5C690B24-31DB-41C5-84A0-CDBE6C151341}"/>
+    <workbookView xWindow="3312" yWindow="720" windowWidth="17280" windowHeight="9072" xr2:uid="{6DA109E8-3401-4919-86D8-FC04CFA4DC9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6858" uniqueCount="4386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6859" uniqueCount="4386">
   <si>
     <t>院校库</t>
   </si>
@@ -13548,7 +13548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346AA83B-6FBC-43EC-9CFC-EAE0BB530275}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19199452-D446-4834-9A93-E2CC74C94774}">
   <dimension ref="A1:K853"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -22741,6 +22741,9 @@
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>211</v>
+      </c>
       <c r="B282" t="s">
         <v>13</v>
       </c>
@@ -24190,6 +24193,9 @@
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>211</v>
+      </c>
       <c r="B327" t="s">
         <v>13</v>
       </c>
@@ -30758,7 +30764,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="529" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B529" t="s">
         <v>13</v>
       </c>
@@ -30790,7 +30796,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="530" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B530" t="s">
         <v>13</v>
       </c>
@@ -30822,7 +30828,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="531" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B531" t="s">
         <v>13</v>
       </c>
@@ -30854,7 +30860,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="532" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B532" t="s">
         <v>13</v>
       </c>
@@ -30886,7 +30892,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="533" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B533" t="s">
         <v>489</v>
       </c>
@@ -30918,7 +30924,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="534" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B534" t="s">
         <v>489</v>
       </c>
@@ -30950,7 +30956,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="535" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B535" t="s">
         <v>13</v>
       </c>
@@ -30982,7 +30988,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="536" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B536" t="s">
         <v>489</v>
       </c>
@@ -31014,7 +31020,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="537" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B537" t="s">
         <v>489</v>
       </c>
@@ -31046,7 +31052,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="538" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B538" t="s">
         <v>13</v>
       </c>
@@ -31078,7 +31084,10 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="539" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>211</v>
+      </c>
       <c r="B539" t="s">
         <v>13</v>
       </c>
@@ -31110,7 +31119,10 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="540" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>211</v>
+      </c>
       <c r="B540" t="s">
         <v>13</v>
       </c>
@@ -31142,7 +31154,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="541" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B541" t="s">
         <v>13</v>
       </c>
@@ -31174,7 +31186,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="542" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B542" t="s">
         <v>13</v>
       </c>
@@ -31206,7 +31218,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="543" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B543" t="s">
         <v>13</v>
       </c>
@@ -31238,7 +31250,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="544" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B544" t="s">
         <v>13</v>
       </c>
@@ -39974,7 +39986,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="817" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B817" t="s">
         <v>13</v>
       </c>
@@ -40006,7 +40018,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="818" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B818" t="s">
         <v>13</v>
       </c>
@@ -40038,7 +40050,10 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="819" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>12</v>
+      </c>
       <c r="B819" t="s">
         <v>13</v>
       </c>
@@ -40070,7 +40085,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="820" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B820" t="s">
         <v>13</v>
       </c>
@@ -40102,7 +40117,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="821" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B821" t="s">
         <v>13</v>
       </c>
@@ -40134,7 +40149,7 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="822" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B822" t="s">
         <v>13</v>
       </c>
@@ -40166,7 +40181,7 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="823" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B823" t="s">
         <v>13</v>
       </c>
@@ -40198,7 +40213,7 @@
         <v>4235</v>
       </c>
     </row>
-    <row r="824" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B824" t="s">
         <v>13</v>
       </c>
@@ -40230,7 +40245,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="825" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B825" t="s">
         <v>13</v>
       </c>
@@ -40262,7 +40277,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="826" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B826" t="s">
         <v>489</v>
       </c>
@@ -40294,7 +40309,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="827" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B827" t="s">
         <v>13</v>
       </c>
@@ -40326,7 +40341,7 @@
         <v>4255</v>
       </c>
     </row>
-    <row r="828" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B828" t="s">
         <v>13</v>
       </c>
@@ -40358,7 +40373,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="829" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B829" t="s">
         <v>13</v>
       </c>
@@ -40390,7 +40405,7 @@
         <v>4265</v>
       </c>
     </row>
-    <row r="830" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B830" t="s">
         <v>13</v>
       </c>
@@ -40422,7 +40437,7 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="831" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B831" t="s">
         <v>13</v>
       </c>
@@ -40454,7 +40469,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="832" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B832" t="s">
         <v>13</v>
       </c>
@@ -40486,7 +40501,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="833" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B833" t="s">
         <v>13</v>
       </c>
@@ -40518,7 +40533,7 @@
         <v>4285</v>
       </c>
     </row>
-    <row r="834" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B834" t="s">
         <v>13</v>
       </c>
@@ -40550,7 +40565,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="835" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B835" t="s">
         <v>13</v>
       </c>
@@ -40582,7 +40597,10 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="836" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>211</v>
+      </c>
       <c r="B836" t="s">
         <v>13</v>
       </c>
@@ -40614,7 +40632,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="837" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B837" t="s">
         <v>13</v>
       </c>
@@ -40646,7 +40664,7 @@
         <v>4305</v>
       </c>
     </row>
-    <row r="838" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B838" t="s">
         <v>13</v>
       </c>
@@ -40678,7 +40696,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="839" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B839" t="s">
         <v>13</v>
       </c>
@@ -40710,7 +40728,7 @@
         <v>4315</v>
       </c>
     </row>
-    <row r="840" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B840" t="s">
         <v>13</v>
       </c>
@@ -40742,7 +40760,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="841" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B841" t="s">
         <v>13</v>
       </c>
@@ -40774,7 +40792,10 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="842" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>211</v>
+      </c>
       <c r="B842" t="s">
         <v>13</v>
       </c>
@@ -40806,7 +40827,7 @@
         <v>4330</v>
       </c>
     </row>
-    <row r="843" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B843" t="s">
         <v>13</v>
       </c>
@@ -40838,7 +40859,7 @@
         <v>4335</v>
       </c>
     </row>
-    <row r="844" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B844" t="s">
         <v>13</v>
       </c>
@@ -40870,7 +40891,7 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="845" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B845" t="s">
         <v>13</v>
       </c>
@@ -40902,7 +40923,7 @@
         <v>4345</v>
       </c>
     </row>
-    <row r="846" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B846" t="s">
         <v>13</v>
       </c>
@@ -40934,7 +40955,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="847" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B847" t="s">
         <v>13</v>
       </c>
@@ -40966,7 +40987,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="848" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B848" t="s">
         <v>13</v>
       </c>
